--- a/results/accel-glmm-results/glmm_ind_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/glmm_ind_effects_hab_season_np.xlsx
@@ -59,13 +59,25 @@
     <t xml:space="preserve">habitat_typeShallow/Low SAV</t>
   </si>
   <si>
+    <t xml:space="preserve">seasonWinter</t>
+  </si>
+  <si>
     <t xml:space="preserve">seasonSpring</t>
   </si>
   <si>
     <t xml:space="preserve">seasonSummer</t>
   </si>
   <si>
-    <t xml:space="preserve">seasonWinter</t>
+    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter</t>
   </si>
   <si>
     <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonSpring</t>
@@ -90,18 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonSummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_typeExposed/Low SAV:seasonWinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_typeMod/Dense SAV:seasonWinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_typeShallow/Dense SAV:seasonWinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_typeShallow/Low SAV:seasonWinter</t>
   </si>
   <si>
     <t xml:space="preserve">ran_pars</t>
@@ -480,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.85409776524771</v>
+        <v>-1.85411499144923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0567388795528141</v>
+        <v>0.0567349096960273</v>
       </c>
       <c r="G2" t="n">
-        <v>-32.6777296249191</v>
+        <v>-32.6803197781252</v>
       </c>
       <c r="H2" t="n">
-        <v>3.23647767441756e-234</v>
+        <v>2.97356868114431e-234</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.291901136098056</v>
+        <v>0.292041300078359</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123030433004965</v>
+        <v>0.123039009651358</v>
       </c>
       <c r="G3" t="n">
-        <v>2.37259293467882</v>
+        <v>2.37356673225739</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0176637188580689</v>
+        <v>0.0176172092768298</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0861195682922161</v>
+        <v>-0.0861170786027511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0169913060002731</v>
+        <v>0.0169913130950191</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.06844902274326</v>
+        <v>-5.0683003792094</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000000401070363874863</v>
+        <v>0.000000401383631927643</v>
       </c>
     </row>
     <row r="5">
@@ -552,16 +552,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0946436896041484</v>
+        <v>0.0946530536493692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0794274433648908</v>
+        <v>0.0794277394570933</v>
       </c>
       <c r="G5" t="n">
-        <v>1.19157416624068</v>
+        <v>1.1916876181589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.233428259573309</v>
+        <v>0.233383754834432</v>
       </c>
     </row>
     <row r="6">
@@ -576,16 +576,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0460029562991197</v>
+        <v>0.0460185247374881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0141596636179831</v>
+        <v>0.01415972698173</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24887352837216</v>
+        <v>3.24995847708539</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00115862979206404</v>
+        <v>0.00115421860013021</v>
       </c>
     </row>
     <row r="7">
@@ -600,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0.164502970053603</v>
+        <v>-0.228764292516279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0135562906917918</v>
+        <v>0.00895236443451118</v>
       </c>
       <c r="G7" t="n">
-        <v>12.1348069168514</v>
+        <v>-25.553505354898</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00000000000000000000000000000000069072737777904</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000050195684143135</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +624,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.255200323959863</v>
+        <v>0.164500488019238</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0136955288457033</v>
+        <v>0.0135562757853923</v>
       </c>
       <c r="G8" t="n">
-        <v>18.633842244064</v>
+        <v>12.1346371690444</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000170810308259514</v>
+        <v>0.000000000000000000000000000000000692161188773339</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +648,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.228771435336113</v>
+        <v>0.255197283194904</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00895236108462933</v>
+        <v>0.0136955109831708</v>
       </c>
       <c r="G9" t="n">
-        <v>-25.5543127867016</v>
+        <v>18.6336445210765</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000491690573361864</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000171442597565997</v>
       </c>
     </row>
     <row r="10">
@@ -672,16 +672,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0435849902402496</v>
+        <v>0.0851206424651651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.129539321976617</v>
+        <v>0.131336357320149</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.336461466489049</v>
+        <v>0.648111796322116</v>
       </c>
       <c r="H10" t="n">
-        <v>0.736522904734971</v>
+        <v>0.516912644860807</v>
       </c>
     </row>
     <row r="11">
@@ -696,16 +696,16 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.129537713156393</v>
+        <v>0.0915433448082384</v>
       </c>
       <c r="F11" t="n">
-        <v>0.026402736456353</v>
+        <v>0.0194387474665106</v>
       </c>
       <c r="G11" t="n">
-        <v>4.90622301103277</v>
+        <v>4.70932321981912</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000000928469526200914</v>
+        <v>0.00000248540671398563</v>
       </c>
     </row>
     <row r="12">
@@ -720,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.411195578230533</v>
+        <v>0.521227784984202</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0814103649230666</v>
+        <v>0.0816279014577631</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.05089958286166</v>
+        <v>6.38541204264454</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000000439734206930489</v>
+        <v>0.000000000170936572716764</v>
       </c>
     </row>
     <row r="13">
@@ -744,16 +744,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.214886768341975</v>
+        <v>-0.0749208696098756</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0230239989598747</v>
+        <v>0.016383101579395</v>
       </c>
       <c r="G13" t="n">
-        <v>9.33316443926492</v>
+        <v>-4.57305774775293</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0000000000000000000102756235757685</v>
+        <v>0.00000480657594265583</v>
       </c>
     </row>
     <row r="14">
@@ -768,16 +768,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0444595320206389</v>
+        <v>-0.0436976512199168</v>
       </c>
       <c r="F14" t="n">
-        <v>0.137022433757798</v>
+        <v>0.129547596036978</v>
       </c>
       <c r="G14" t="n">
-        <v>0.324468999720337</v>
+        <v>-0.337309626397419</v>
       </c>
       <c r="H14" t="n">
-        <v>0.74558298842713</v>
+        <v>0.735883503687849</v>
       </c>
     </row>
     <row r="15">
@@ -792,16 +792,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0778868756817702</v>
+        <v>0.129527806961306</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0250980068316966</v>
+        <v>0.0264026767632323</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.10330920714412</v>
+        <v>4.90585890676368</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00191369582622144</v>
+        <v>0.000000930193764502628</v>
       </c>
     </row>
     <row r="16">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.452401443407481</v>
+        <v>-0.411190914942214</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0820427372594335</v>
+        <v>0.081410665072834</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.51421684014404</v>
+        <v>-5.05082367985009</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0000000350336449260988</v>
+        <v>0.000000439908994957145</v>
       </c>
     </row>
     <row r="17">
@@ -840,16 +840,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0964970425731502</v>
+        <v>0.21488358836013</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0191725490211179</v>
+        <v>0.0230240720598793</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.03308362737066</v>
+        <v>9.33299669151817</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000000482652447471958</v>
+        <v>0.0000000000000000000102919046826049</v>
       </c>
     </row>
     <row r="18">
@@ -864,16 +864,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0852516194498005</v>
+        <v>0.0443660577753137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.131328194396751</v>
+        <v>0.137030642270912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.649149406503299</v>
+        <v>0.32376742194349</v>
       </c>
       <c r="H18" t="n">
-        <v>0.516241809838718</v>
+        <v>0.746114122291077</v>
       </c>
     </row>
     <row r="19">
@@ -888,16 +888,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0915458818085662</v>
+        <v>-0.0778877183512656</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0194387261905997</v>
+        <v>0.0250979892837383</v>
       </c>
       <c r="G19" t="n">
-        <v>4.70945888691187</v>
+        <v>-3.10334495208871</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00000248375306238611</v>
+        <v>0.00191346467935494</v>
       </c>
     </row>
     <row r="20">
@@ -912,16 +912,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5212415034435</v>
+        <v>-0.452402862014736</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0816276105869698</v>
+        <v>0.0820430264217772</v>
       </c>
       <c r="G20" t="n">
-        <v>6.38560285784852</v>
+        <v>-5.51421469618839</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000000000170723543933912</v>
+        <v>0.0000000350340719496958</v>
       </c>
     </row>
     <row r="21">
@@ -936,16 +936,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0748989689072004</v>
+        <v>-0.0965099941672309</v>
       </c>
       <c r="F21" t="n">
-        <v>0.016383043970327</v>
+        <v>0.0191725825555898</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.57173703756502</v>
+        <v>-5.03375035091937</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00000483697711911478</v>
+        <v>0.000000480975967108472</v>
       </c>
     </row>
     <row r="22">
@@ -962,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>0.250395933768293</v>
+        <v>0.250378129464447</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
